--- a/biology/Médecine/Broches_(orthodontie)/Broches_(orthodontie).xlsx
+++ b/biology/Médecine/Broches_(orthodontie)/Broches_(orthodontie).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En orthodontie, des broches, ou brackets vestibulaires, sont un dispositif permettant de redresser et aligner la dentition. Elles sont utilisées dans un but esthétique ou pour régler un enjeu de santé, souvent lié à une malocclusion dentaire.
 Les broches sont régulièrement utilisées conjointement avec d'autres appareillages fixes, notamment pour aider à élargir le palais ou la mâchoire.
@@ -512,9 +524,11 @@
           <t>Fonctionnement</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les broches sont généralement constituées de fils métalliques apposés sur des supports, avec parfois l'ajout d'élastiques (en). La pression constante exercée par les fils métalliques sur les supports amènent tranquillement le mouvement des dents vers la position désirée. Le processus entraîne une déstabilisation temporaire de la base des dents, mais une reformation des os (en) se produit pour stabiliser les nouvelles positions[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les broches sont généralement constituées de fils métalliques apposés sur des supports, avec parfois l'ajout d'élastiques (en). La pression constante exercée par les fils métalliques sur les supports amènent tranquillement le mouvement des dents vers la position désirée. Le processus entraîne une déstabilisation temporaire de la base des dents, mais une reformation des os (en) se produit pour stabiliser les nouvelles positions.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Types</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Broches métalliques : C'est le type le plus commun. Faites en acier inoxydable, parfois combiné avec du titane.
 Broches métalliques plaquées or : Souvent utilisées chez les patients allergiques au nickel (constituant de l'acier inoxydable).
@@ -576,7 +592,9 @@
           <t>Apposition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Préparation des dents d'un patient afin d'y appliquer des broches.
@@ -609,7 +627,9 @@
           <t>Post-traitement</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les patients peuvent nécessiter certains traitements après la pose de broches, tels la fibrerotomie (en). Une fois les broches enlevées, le port d'un protège-dents pendant une certaine durée peut également être nécessaire pour éviter un redéplacement des dents
 </t>
@@ -640,9 +660,11 @@
           <t>Complications et risques</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les patients ressentent régulièrement une certaine douleur temporaire à la suite de la pose de broches[2],[3].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les patients ressentent régulièrement une certaine douleur temporaire à la suite de la pose de broches,.
 </t>
         </is>
       </c>
@@ -672,6 +694,8 @@
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
